--- a/数据整理/stocks/其他/BXP-波士顿地产公司.xlsx
+++ b/数据整理/stocks/其他/BXP-波士顿地产公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/BXP-波士顿地产公司.xlsx
+++ b/数据整理/stocks/其他/BXP-波士顿地产公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -726,4 +727,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/BXP-波士顿地产公司.xlsx
+++ b/数据整理/stocks/其他/BXP-波士顿地产公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/BXP-波士顿地产公司.xlsx
+++ b/数据整理/stocks/其他/BXP-波士顿地产公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -830,7 +831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,17 +842,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -861,14 +882,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -877,14 +972,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +988,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -909,13 +1004,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/BXP-波士顿地产公司.xlsx
+++ b/数据整理/stocks/其他/BXP-波士顿地产公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -925,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,14 +977,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -972,14 +1067,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -988,14 +1083,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -1004,7 +1099,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1020,13 +1115,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/BXP-波士顿地产公司.xlsx
+++ b/数据整理/stocks/其他/BXP-波士顿地产公司.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>320017</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安全球收益不动产(QDII)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -611,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.86</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0273</t>
+          <t>0.0246</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +703,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -705,26 +743,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.0252</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -853,7 +891,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -893,26 +931,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>93.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0252</t>
+          <t>0.0307</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +985,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -987,26 +1025,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>89.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0246</t>
+          <t>0.0273</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1020,128 +1058,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/BXP-波士顿地产公司.xlsx
+++ b/数据整理/stocks/其他/BXP-波士顿地产公司.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -551,7 +552,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -644,31 +661,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安全球收益不动产(QDII)</t>
+          <t>诺安全球收益不动产（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>73.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0246</t>
+          <t>0.0107</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -743,26 +760,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0252</t>
+          <t>0.0246</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +814,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -837,22 +854,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0244</t>
+          <t>0.0252</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -931,26 +948,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.0244</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1025,26 +1042,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.86</t>
+          <t>93.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0273</t>
+          <t>0.0307</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1053,6 +1070,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
